--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -1,22 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\project\EPPlus4PHP\EPPlus4PHP.Test.PHP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6F2713BA-6BA8-45B5-857C-B6B36CD1FA57}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="9612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <t>d</t>
+    </r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <rPr>
+        <u val="singleAccounting"/>
+        <sz val="50"/>
+        <color rgb="FFBBCCDD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>wadwa</t>
+    </r>
+    <phoneticPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="2">
     <font>
@@ -24,9 +49,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u val="singleAccounting"/>
+      <vertAlign val="superscript"/>
       <sz val="50"/>
-      <color rgb="BB000000" tint="0"/>
+      <color rgb="FFBBCCDD"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,31 +75,345 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="54.44140625" customWidth="1" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1"/>
+    <row r="1" ht="72.6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -57,12 +57,17 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBCCDD" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,7 +86,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -70,13 +70,26 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="00BBCCDD" tint="0"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF00FF00" tint="0"/>
+      </bottom>
+      <diagonal style="dashed">
+        <color rgb="FF0000FF" tint="0"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -86,7 +99,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -42,7 +42,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##,###"/>
+    <numFmt numFmtId="165" formatCode="yyyy/m/d h:mm"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -99,7 +102,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -8,72 +8,224 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\project\EPPlus4PHP\EPPlus4PHP.Test.PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6F2713BA-6BA8-45B5-857C-B6B36CD1FA57}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7A07F717-4830-4F70-9DF7-2E10263012F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="9612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <t>d</t>
-    </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <rPr>
-        <u val="singleAccounting"/>
-        <sz val="50"/>
-        <color rgb="FFBBCCDD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>wadwa</t>
-    </r>
-    <phoneticPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>C20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##,###"/>
-    <numFmt numFmtId="165" formatCode="yyyy/m/d h:mm"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="singleAccounting"/>
-      <vertAlign val="superscript"/>
-      <sz val="50"/>
-      <color rgb="FFBBCCDD"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BBCCDD" tint="0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -81,28 +233,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color rgb="00BBCCDD" tint="0"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF00FF00" tint="0"/>
-      </bottom>
-      <diagonal style="dashed">
-        <color rgb="FF0000FF" tint="0"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,24 +555,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="54.44140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72.6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="88.8" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\project\EPPlus4PHP\EPPlus4PHP.Test.PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7A07F717-4830-4F70-9DF7-2E10263012F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D5F3992-BC0F-4CD0-8E94-4EB3E94D3103}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="9612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,14 +555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1">
@@ -785,7 +786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="88.8" customHeight="1"/>
+    <row r="23" spans="1:3" ht="57.6" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -59,11 +59,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -387,93 +390,96 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="4">
         <v>2</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="4">
         <v>3</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <v>4</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="3">
         <v>5</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="3">
         <v>6</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="3">
         <v>7</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="3">
         <v>8</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="A2" s="4">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -27,7 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,23 +432,23 @@
       <c r="C2" s="4">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2">
-        <v>9</v>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -464,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
         <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -27,9 +27,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>|</t>
+  </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>wa</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>ppp</t>
   </si>
 </sst>
 </file>
@@ -63,7 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -385,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -394,90 +413,288 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4">
+      <c r="A1" s="5">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5">
         <v>3</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>4</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>5</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>6</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>7</v>
       </c>
-      <c r="H1" s="3">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3">
+      <c r="H1" s="4">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4">
         <v>9</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -81,7 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -404,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -413,288 +414,383 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5">
+      <c r="A1" s="6">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="5">
         <v>4</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="5">
         <v>5</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="5">
         <v>6</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="5">
         <v>7</v>
       </c>
-      <c r="H1" s="4">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4">
+      <c r="H1" s="5">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>9</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>7</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>3</v>
       </c>
-      <c r="K4" s="1">
-        <v>8</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="2">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="A5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2">
         <v>4</v>
       </c>
-      <c r="K5" s="1">
-        <v>8</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="K5" s="2">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
         <v>5</v>
       </c>
-      <c r="K6" s="1">
-        <v>8</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="2">
+        <v>8</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>6</v>
       </c>
-      <c r="K7" s="1">
-        <v>8</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="K7" s="2">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>7</v>
       </c>
-      <c r="K8" s="1">
-        <v>8</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="K8" s="2">
+        <v>8</v>
+      </c>
+      <c r="L8" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="K9" s="1">
-        <v>8</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2</v>
+      <c r="K9" s="2">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21040" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21040" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
   <extLst>
@@ -29,13 +30,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>|</t>
+    <t>1</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>qq</t>
@@ -48,6 +46,9 @@
   </si>
   <si>
     <t>ppp</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -81,7 +82,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -407,399 +409,551 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6">
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7">
         <v>3</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="6">
         <v>4</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="6">
         <v>5</v>
       </c>
-      <c r="F1" s="5">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5">
+      <c r="F1" s="6">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6">
         <v>7</v>
       </c>
-      <c r="H1" s="5">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="6">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="C3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="F3" s="5">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>8</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" s="3">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="K9" s="3">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F13" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2">
-        <v>8</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2">
-        <v>8</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2">
-        <v>8</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2">
-        <v>6</v>
-      </c>
-      <c r="K7" s="2">
-        <v>8</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="J8" s="2">
-        <v>7</v>
-      </c>
-      <c r="K8" s="2">
-        <v>8</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="K9" s="2">
-        <v>8</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -82,7 +82,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -416,382 +417,382 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7">
+      <c r="A1" s="8">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8">
         <v>3</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="7">
         <v>4</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="7">
         <v>5</v>
       </c>
-      <c r="F1" s="6">
-        <v>6</v>
-      </c>
-      <c r="G1" s="6">
+      <c r="F1" s="7">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7">
         <v>7</v>
       </c>
-      <c r="H1" s="6">
-        <v>8</v>
-      </c>
-      <c r="I1" s="6">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="H1" s="7">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="A2" s="8">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3">
-        <v>8</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="F3" s="6">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
-      <c r="F4" s="4">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="5">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
         <v>7</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
-        <v>8</v>
-      </c>
-      <c r="L4" s="3">
-        <v>2</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="K4" s="4">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4">
-        <v>8</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="A5" s="5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4">
         <v>4</v>
       </c>
-      <c r="K5" s="3">
-        <v>8</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="K5" s="4">
+        <v>8</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="3">
-        <v>8</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="K6" s="4">
+        <v>8</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="3">
-        <v>6</v>
-      </c>
-      <c r="K7" s="3">
-        <v>8</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="J7" s="4">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8">
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>7</v>
       </c>
-      <c r="K8" s="3">
-        <v>8</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8" s="4">
+        <v>8</v>
+      </c>
+      <c r="L8" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="K9" s="3">
-        <v>8</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="K9" s="4">
+        <v>8</v>
+      </c>
+      <c r="L9" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="2">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="3">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -817,137 +818,137 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
         <v>3</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>4</v>
       </c>
-      <c r="E1" s="1">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="E1" s="2">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="A2" s="2">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="A3" s="2">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>9</v>
       </c>
     </row>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -819,7 +819,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2">
-        <v>1</v>
+        <f>test</f>
       </c>
       <c r="B1" s="2">
         <v>2</v>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -15,7 +15,7 @@
     <sheet name="test sheet" sheetId="1" r:id="rId1"/>
     <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,10 +30,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>1</t>
+    <t>|</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>qq</t>
@@ -46,9 +49,6 @@
   </si>
   <si>
     <t>ppp</t>
-  </si>
-  <si>
-    <t>|</t>
   </si>
 </sst>
 </file>
@@ -445,16 +445,16 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -571,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -647,27 +647,27 @@
         <v>2</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="4">
         <v>6</v>
@@ -679,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -778,22 +778,22 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -812,145 +812,108 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="A1:XFD1048576"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2">
-        <f>test</f>
-      </c>
-      <c r="B1" s="2">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2">
-        <v>7</v>
-      </c>
+        <f>microtime()</f>
+        <v>1538811206.4229839</v>
+      </c>
+      <c r="B1" s="2" t="e">
+        <f ref="B1:C1" t="shared" si="1">microtime</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2">
-        <v>8</v>
-      </c>
+      <c r="A2" s="2" t="e">
+        <f ref="A2:C5" t="shared" si="2">microtime</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6</v>
-      </c>
+      <c r="A3" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
+      <c r="A4" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C5" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6">
-      <c r="E6" s="2">
-        <v>9</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -28,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>stdClass</t>
+  </si>
   <si>
     <t>|</t>
   </si>
@@ -445,16 +448,16 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -468,22 +471,22 @@
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -495,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +521,13 @@
         <v>9</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
@@ -536,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -609,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -647,27 +650,27 @@
         <v>2</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="4">
         <v>6</v>
@@ -679,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -778,22 +781,22 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -818,9 +821,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2">
-        <f>microtime()</f>
-        <v>1538811206.4229839</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="e">
         <f ref="B1:C1" t="shared" si="1">microtime</f>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -28,9 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>stdClass</t>
+  </si>
+  <si>
+    <t>Enumerable</t>
   </si>
   <si>
     <t>|</t>
@@ -448,16 +451,16 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -471,22 +474,22 @@
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -498,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -521,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
@@ -539,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -574,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -612,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -650,27 +653,27 @@
         <v>2</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="4">
         <v>6</v>
@@ -682,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -781,22 +784,22 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -826,11 +829,11 @@
       </c>
       <c r="B1" s="2" t="e">
         <f ref="B1:C1" t="shared" si="1">microtime</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="C1" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -841,15 +844,15 @@
     <row r="2">
       <c r="A2" s="2" t="e">
         <f ref="A2:C5" t="shared" si="2">microtime</f>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="B2" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="C2" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -861,15 +864,15 @@
     <row r="3">
       <c r="A3" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="B3" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="C3" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -879,19 +882,21 @@
     <row r="4">
       <c r="A4" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="B4" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="C4" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -899,15 +904,15 @@
     <row r="5">
       <c r="A5" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="B5" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="C5" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>#NAME?</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>

--- a/EPPlus4PHP.Test.PHP/test.xlsx
+++ b/EPPlus4PHP.Test.PHP/test.xlsx
@@ -28,12 +28,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>stdClass</t>
   </si>
   <si>
     <t>Enumerable</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Closure</t>
+  </si>
+  <si>
+    <t>resource id #2</t>
   </si>
   <si>
     <t>|</t>
@@ -88,7 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -423,383 +437,383 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8">
+      <c r="A1" s="10">
         <v>1</v>
       </c>
-      <c r="B1" s="8">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8">
+      <c r="B1" s="10">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10">
         <v>3</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="9">
         <v>4</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="9">
         <v>5</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="9">
         <v>6</v>
       </c>
-      <c r="G1" s="7">
-        <v>7</v>
-      </c>
-      <c r="H1" s="7">
-        <v>8</v>
-      </c>
-      <c r="I1" s="7">
+      <c r="G1" s="9">
+        <v>7</v>
+      </c>
+      <c r="H1" s="9">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>2</v>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>9</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="10">
         <v>9</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>8</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7">
+        <v>7</v>
+      </c>
+      <c r="J4" s="6">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="K4" s="6">
+        <v>8</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>8</v>
+      </c>
+      <c r="G5" s="7">
+        <v>8</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6">
+        <v>8</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6">
+        <v>8</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6">
+        <v>8</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="J8" s="6">
+        <v>7</v>
+      </c>
+      <c r="K8" s="6">
+        <v>8</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="K9" s="6">
+        <v>8</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>8</v>
-      </c>
-      <c r="L2" s="4">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="D10" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4">
-        <v>8</v>
-      </c>
-      <c r="L3" s="4">
-        <v>2</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5">
-        <v>7</v>
-      </c>
-      <c r="J4" s="4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4">
-        <v>8</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5">
-        <v>8</v>
-      </c>
-      <c r="H5" s="5">
-        <v>8</v>
-      </c>
-      <c r="J5" s="4">
-        <v>4</v>
-      </c>
-      <c r="K5" s="4">
-        <v>8</v>
-      </c>
-      <c r="L5" s="4">
-        <v>2</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4">
-        <v>8</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="4">
-        <v>6</v>
-      </c>
-      <c r="K7" s="4">
-        <v>8</v>
-      </c>
-      <c r="L7" s="4">
-        <v>2</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="J8" s="4">
-        <v>7</v>
-      </c>
-      <c r="K8" s="4">
-        <v>8</v>
-      </c>
-      <c r="L8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="K9" s="4">
-        <v>8</v>
-      </c>
-      <c r="L9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3">
-        <v>8</v>
-      </c>
-      <c r="H11" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +829,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -824,103 +838,187 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="e">
+      <c r="B1" s="4" t="e">
         <f ref="B1:C1" t="shared" si="1">microtime</f>
         <v>#NAME?</v>
       </c>
-      <c r="C1" s="2" t="e">
+      <c r="C1" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="e">
+      <c r="A2" s="4" t="e">
         <f ref="A2:C5" t="shared" si="2">microtime</f>
         <v>#NAME?</v>
       </c>
-      <c r="B2" s="2" t="e">
+      <c r="B2" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="2" t="e">
+      <c r="C2" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="e">
+      <c r="A3" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="B3" s="2" t="e">
+      <c r="B3" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="C3" s="2" t="e">
+      <c r="C3" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="e">
+      <c r="A4" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="B4" s="2" t="e">
+      <c r="B4" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="C4" s="2" t="e">
+      <c r="C4" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="e">
+      <c r="A5" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="B5" s="2" t="e">
+      <c r="B5" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="C5" s="2" t="e">
+      <c r="C5" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6">
-      <c r="E6" s="2"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>666</v>
+      </c>
+      <c r="B7" s="3">
+        <v>666</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>666</v>
+      </c>
+      <c r="B8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>666</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>666</v>
+      </c>
+      <c r="B9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>666</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
